--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H2">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I2">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J2">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.08711966666666666</v>
+        <v>0.3335856666666666</v>
       </c>
       <c r="N2">
-        <v>0.261359</v>
+        <v>1.000757</v>
       </c>
       <c r="O2">
-        <v>0.001362199707851451</v>
+        <v>0.005213216022528561</v>
       </c>
       <c r="P2">
-        <v>0.001362199707851451</v>
+        <v>0.00521321602252856</v>
       </c>
       <c r="Q2">
-        <v>2.660842342325222</v>
+        <v>9.755160403802664</v>
       </c>
       <c r="R2">
-        <v>23.947581080927</v>
+        <v>87.79644363422399</v>
       </c>
       <c r="S2">
-        <v>0.000409742530654977</v>
+        <v>0.001300780820921351</v>
       </c>
       <c r="T2">
-        <v>0.0004097425306549769</v>
+        <v>0.001300780820921351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H3">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I3">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J3">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>27.84850933333334</v>
+        <v>0.08711966666666666</v>
       </c>
       <c r="N3">
-        <v>83.545528</v>
+        <v>0.261359</v>
       </c>
       <c r="O3">
-        <v>0.4354382050508887</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="P3">
-        <v>0.4354382050508886</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="Q3">
-        <v>850.5598751690871</v>
+        <v>2.547670381498667</v>
       </c>
       <c r="R3">
-        <v>7655.038876521784</v>
+        <v>22.929033433488</v>
       </c>
       <c r="S3">
-        <v>0.1309775292514367</v>
+        <v>0.0003397136113713752</v>
       </c>
       <c r="T3">
-        <v>0.1309775292514367</v>
+        <v>0.0003397136113713752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H4">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I4">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J4">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.63492533333333</v>
+        <v>27.597081</v>
       </c>
       <c r="N4">
-        <v>37.904776</v>
+        <v>82.79124300000001</v>
       </c>
       <c r="O4">
-        <v>0.1975591993900141</v>
+        <v>0.4312821539421215</v>
       </c>
       <c r="P4">
-        <v>0.197559199390014</v>
+        <v>0.4312821539421214</v>
       </c>
       <c r="Q4">
-        <v>385.9007455536364</v>
+        <v>807.030933078864</v>
       </c>
       <c r="R4">
-        <v>3473.106709982727</v>
+        <v>7263.278397709776</v>
       </c>
       <c r="S4">
-        <v>0.05942477145286765</v>
+        <v>0.1076117989028696</v>
       </c>
       <c r="T4">
-        <v>0.05942477145286763</v>
+        <v>0.1076117989028696</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H5">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I5">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J5">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.384581</v>
+        <v>18.22933266666667</v>
       </c>
       <c r="N5">
-        <v>70.15374300000001</v>
+        <v>54.687998</v>
       </c>
       <c r="O5">
-        <v>0.3656403958512459</v>
+        <v>0.2848846897035044</v>
       </c>
       <c r="P5">
-        <v>0.3656403958512459</v>
+        <v>0.2848846897035043</v>
       </c>
       <c r="Q5">
-        <v>714.2208603759643</v>
+        <v>533.0866460617707</v>
       </c>
       <c r="R5">
-        <v>6427.987743383679</v>
+        <v>4797.779814555935</v>
       </c>
       <c r="S5">
-        <v>0.1099827141661044</v>
+        <v>0.07108328888330054</v>
       </c>
       <c r="T5">
-        <v>0.1099827141661044</v>
+        <v>0.07108328888330052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.55382266666667</v>
+        <v>29.243344</v>
       </c>
       <c r="H6">
-        <v>64.661468</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I6">
-        <v>0.2122714713209156</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J6">
-        <v>0.2122714713209156</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08711966666666666</v>
+        <v>17.74134133333333</v>
       </c>
       <c r="N6">
-        <v>0.261359</v>
+        <v>53.224024</v>
       </c>
       <c r="O6">
-        <v>0.001362199707851451</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="P6">
-        <v>0.001362199707851451</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="Q6">
-        <v>1.877761846112444</v>
+        <v>518.8161476320853</v>
       </c>
       <c r="R6">
-        <v>16.899856615012</v>
+        <v>4669.345328688768</v>
       </c>
       <c r="S6">
-        <v>0.0002891561362185488</v>
+        <v>0.0691804200534772</v>
       </c>
       <c r="T6">
-        <v>0.0002891561362185488</v>
+        <v>0.0691804200534772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H7">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I7">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J7">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>27.84850933333334</v>
+        <v>0.3335856666666666</v>
       </c>
       <c r="N7">
-        <v>83.545528</v>
+        <v>1.000757</v>
       </c>
       <c r="O7">
-        <v>0.4354382050508887</v>
+        <v>0.005213216022528561</v>
       </c>
       <c r="P7">
-        <v>0.4354382050508886</v>
+        <v>0.00521321602252856</v>
       </c>
       <c r="Q7">
-        <v>600.2418317016783</v>
+        <v>13.24175220176155</v>
       </c>
       <c r="R7">
-        <v>5402.176485315104</v>
+        <v>119.175769815854</v>
       </c>
       <c r="S7">
-        <v>0.09243110845549068</v>
+        <v>0.001765692883197508</v>
       </c>
       <c r="T7">
-        <v>0.09243110845549066</v>
+        <v>0.001765692883197508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H8">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I8">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J8">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>12.63492533333333</v>
+        <v>0.08711966666666666</v>
       </c>
       <c r="N8">
-        <v>37.904776</v>
+        <v>0.261359</v>
       </c>
       <c r="O8">
-        <v>0.1975591993900141</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="P8">
-        <v>0.197559199390014</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="Q8">
-        <v>272.3309400412409</v>
+        <v>3.458233231144222</v>
       </c>
       <c r="R8">
-        <v>2450.978460371168</v>
+        <v>31.124099080298</v>
       </c>
       <c r="S8">
-        <v>0.04193618192750041</v>
+        <v>0.0004611306503572972</v>
       </c>
       <c r="T8">
-        <v>0.04193618192750041</v>
+        <v>0.0004611306503572972</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H9">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I9">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J9">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.384581</v>
+        <v>27.597081</v>
       </c>
       <c r="N9">
-        <v>70.15374300000001</v>
+        <v>82.79124300000001</v>
       </c>
       <c r="O9">
-        <v>0.3656403958512459</v>
+        <v>0.4312821539421215</v>
       </c>
       <c r="P9">
-        <v>0.3656403958512459</v>
+        <v>0.4312821539421214</v>
       </c>
       <c r="Q9">
-        <v>504.0271120083027</v>
+        <v>1095.471852089794</v>
       </c>
       <c r="R9">
-        <v>4536.244008074725</v>
+        <v>9859.246668808148</v>
       </c>
       <c r="S9">
-        <v>0.07761502480170596</v>
+        <v>0.1460733310445748</v>
       </c>
       <c r="T9">
-        <v>0.07761502480170594</v>
+        <v>0.1460733310445748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5267796666666668</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H10">
-        <v>1.580339</v>
+        <v>119.085622</v>
       </c>
       <c r="I10">
-        <v>0.005187956523285622</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J10">
-        <v>0.00518795652328562</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08711966666666666</v>
+        <v>18.22933266666667</v>
       </c>
       <c r="N10">
-        <v>0.261359</v>
+        <v>54.687998</v>
       </c>
       <c r="O10">
-        <v>0.001362199707851451</v>
+        <v>0.2848846897035044</v>
       </c>
       <c r="P10">
-        <v>0.001362199707851451</v>
+        <v>0.2848846897035043</v>
       </c>
       <c r="Q10">
-        <v>0.04589286896677779</v>
+        <v>723.6171397516397</v>
       </c>
       <c r="R10">
-        <v>0.413035820701</v>
+        <v>6512.554257764756</v>
       </c>
       <c r="S10">
-        <v>7.067032860365703E-06</v>
+        <v>0.09648916656582925</v>
       </c>
       <c r="T10">
-        <v>7.0670328603657E-06</v>
+        <v>0.09648916656582923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5267796666666668</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H11">
-        <v>1.580339</v>
+        <v>119.085622</v>
       </c>
       <c r="I11">
-        <v>0.005187956523285622</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J11">
-        <v>0.00518795652328562</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.84850933333334</v>
+        <v>17.74134133333333</v>
       </c>
       <c r="N11">
-        <v>83.545528</v>
+        <v>53.224024</v>
       </c>
       <c r="O11">
-        <v>0.4354382050508887</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="P11">
-        <v>0.4354382050508886</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="Q11">
-        <v>14.67002846377689</v>
+        <v>704.2462225981033</v>
       </c>
       <c r="R11">
-        <v>132.030256173992</v>
+        <v>6338.216003382928</v>
       </c>
       <c r="S11">
-        <v>0.00225903447638154</v>
+        <v>0.09390619340352693</v>
       </c>
       <c r="T11">
-        <v>0.002259034476381539</v>
+        <v>0.09390619340352692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5267796666666668</v>
+        <v>0.280468</v>
       </c>
       <c r="H12">
-        <v>1.580339</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I12">
-        <v>0.005187956523285622</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J12">
-        <v>0.00518795652328562</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>12.63492533333333</v>
+        <v>0.3335856666666666</v>
       </c>
       <c r="N12">
-        <v>37.904776</v>
+        <v>1.000757</v>
       </c>
       <c r="O12">
-        <v>0.1975591993900141</v>
+        <v>0.005213216022528561</v>
       </c>
       <c r="P12">
-        <v>0.197559199390014</v>
+        <v>0.00521321602252856</v>
       </c>
       <c r="Q12">
-        <v>6.655821755451557</v>
+        <v>0.09356010475866665</v>
       </c>
       <c r="R12">
-        <v>59.902395799064</v>
+        <v>0.8420409428279998</v>
       </c>
       <c r="S12">
-        <v>0.001024928537210508</v>
+        <v>1.247557034797968E-05</v>
       </c>
       <c r="T12">
-        <v>0.001024928537210508</v>
+        <v>1.247557034797968E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5267796666666668</v>
+        <v>0.280468</v>
       </c>
       <c r="H13">
-        <v>1.580339</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I13">
-        <v>0.005187956523285622</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J13">
-        <v>0.00518795652328562</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>23.384581</v>
+        <v>0.08711966666666666</v>
       </c>
       <c r="N13">
-        <v>70.15374300000001</v>
+        <v>0.261359</v>
       </c>
       <c r="O13">
-        <v>0.3656403958512459</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="P13">
-        <v>0.3656403958512459</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="Q13">
-        <v>12.31852178431967</v>
+        <v>0.02443427867066666</v>
       </c>
       <c r="R13">
-        <v>110.866696058877</v>
+        <v>0.219908508036</v>
       </c>
       <c r="S13">
-        <v>0.001896926476833208</v>
+        <v>3.258136181488234E-06</v>
       </c>
       <c r="T13">
-        <v>0.001896926476833207</v>
+        <v>3.258136181488234E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,61 +1287,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.786202</v>
+        <v>0.280468</v>
       </c>
       <c r="H14">
-        <v>113.358606</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I14">
-        <v>0.3721350415754244</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J14">
-        <v>0.3721350415754243</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08711966666666666</v>
+        <v>27.597081</v>
       </c>
       <c r="N14">
-        <v>0.261359</v>
+        <v>82.79124300000001</v>
       </c>
       <c r="O14">
-        <v>0.001362199707851451</v>
+        <v>0.4312821539421215</v>
       </c>
       <c r="P14">
-        <v>0.001362199707851451</v>
+        <v>0.4312821539421214</v>
       </c>
       <c r="Q14">
-        <v>3.291921322839333</v>
+        <v>7.740098113908001</v>
       </c>
       <c r="R14">
-        <v>29.627291905554</v>
+        <v>69.660883025172</v>
       </c>
       <c r="S14">
-        <v>0.0005069222449153306</v>
+        <v>0.001032086686621408</v>
       </c>
       <c r="T14">
-        <v>0.0005069222449153305</v>
+        <v>0.001032086686621408</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.786202</v>
+        <v>0.280468</v>
       </c>
       <c r="H15">
-        <v>113.358606</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I15">
-        <v>0.3721350415754244</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J15">
-        <v>0.3721350415754243</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.84850933333334</v>
+        <v>18.22933266666667</v>
       </c>
       <c r="N15">
-        <v>83.545528</v>
+        <v>54.687998</v>
       </c>
       <c r="O15">
-        <v>0.4354382050508887</v>
+        <v>0.2848846897035044</v>
       </c>
       <c r="P15">
-        <v>0.4354382050508886</v>
+        <v>0.2848846897035043</v>
       </c>
       <c r="Q15">
-        <v>1052.289399068219</v>
+        <v>5.112744474354667</v>
       </c>
       <c r="R15">
-        <v>9470.60459161397</v>
+        <v>46.014700269192</v>
       </c>
       <c r="S15">
-        <v>0.1620418145401406</v>
+        <v>0.0006817478830916715</v>
       </c>
       <c r="T15">
-        <v>0.1620418145401405</v>
+        <v>0.0006817478830916714</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.786202</v>
+        <v>0.280468</v>
       </c>
       <c r="H16">
-        <v>113.358606</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I16">
-        <v>0.3721350415754244</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J16">
-        <v>0.3721350415754243</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.63492533333333</v>
+        <v>17.74134133333333</v>
       </c>
       <c r="N16">
-        <v>37.904776</v>
+        <v>53.224024</v>
       </c>
       <c r="O16">
-        <v>0.1975591993900141</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="P16">
-        <v>0.197559199390014</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="Q16">
-        <v>477.4258409002507</v>
+        <v>4.975878521077334</v>
       </c>
       <c r="R16">
-        <v>4296.832568102256</v>
+        <v>44.782906689696</v>
       </c>
       <c r="S16">
-        <v>0.07351870087861044</v>
+        <v>0.0006634977877892025</v>
       </c>
       <c r="T16">
-        <v>0.07351870087861041</v>
+        <v>0.0006634977877892022</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.786202</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H17">
-        <v>113.358606</v>
+        <v>115.659331</v>
       </c>
       <c r="I17">
-        <v>0.3721350415754244</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J17">
-        <v>0.3721350415754243</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>23.384581</v>
+        <v>0.3335856666666666</v>
       </c>
       <c r="N17">
-        <v>70.15374300000001</v>
+        <v>1.000757</v>
       </c>
       <c r="O17">
-        <v>0.3656403958512459</v>
+        <v>0.005213216022528561</v>
       </c>
       <c r="P17">
-        <v>0.3656403958512459</v>
+        <v>0.00521321602252856</v>
       </c>
       <c r="Q17">
-        <v>883.6145013513622</v>
+        <v>12.86076501261855</v>
       </c>
       <c r="R17">
-        <v>7952.53051216226</v>
+        <v>115.746885113567</v>
       </c>
       <c r="S17">
-        <v>0.136067603911758</v>
+        <v>0.001714890968299137</v>
       </c>
       <c r="T17">
-        <v>0.136067603911758</v>
+        <v>0.001714890968299137</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H18">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I18">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J18">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.261359</v>
       </c>
       <c r="O18">
-        <v>0.001362199707851451</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="P18">
-        <v>0.001362199707851451</v>
+        <v>0.001361490278291376</v>
       </c>
       <c r="Q18">
-        <v>0.9696212426389998</v>
+        <v>3.358734121203222</v>
       </c>
       <c r="R18">
-        <v>8.726591183750999</v>
+        <v>30.228607090829</v>
       </c>
       <c r="S18">
-        <v>0.0001493117632022288</v>
+        <v>0.0004478631561744701</v>
       </c>
       <c r="T18">
-        <v>0.0001493117632022287</v>
+        <v>0.0004478631561744701</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H19">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I19">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J19">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.84850933333334</v>
+        <v>27.597081</v>
       </c>
       <c r="N19">
-        <v>83.545528</v>
+        <v>82.79124300000001</v>
       </c>
       <c r="O19">
-        <v>0.4354382050508887</v>
+        <v>0.4312821539421215</v>
       </c>
       <c r="P19">
-        <v>0.4354382050508886</v>
+        <v>0.4312821539421214</v>
       </c>
       <c r="Q19">
-        <v>309.947308783288</v>
+        <v>1063.953308670937</v>
       </c>
       <c r="R19">
-        <v>2789.525779049592</v>
+        <v>9575.579778038435</v>
       </c>
       <c r="S19">
-        <v>0.04772871832743918</v>
+        <v>0.1418705588619007</v>
       </c>
       <c r="T19">
-        <v>0.04772871832743916</v>
+        <v>0.1418705588619007</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H20">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I20">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J20">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.63492533333333</v>
+        <v>18.22933266666667</v>
       </c>
       <c r="N20">
-        <v>37.904776</v>
+        <v>54.687998</v>
       </c>
       <c r="O20">
-        <v>0.1975591993900141</v>
+        <v>0.2848846897035044</v>
       </c>
       <c r="P20">
-        <v>0.197559199390014</v>
+        <v>0.2848846897035043</v>
       </c>
       <c r="Q20">
-        <v>140.623724482696</v>
+        <v>702.7974736010376</v>
       </c>
       <c r="R20">
-        <v>1265.613520344264</v>
+        <v>6325.177262409338</v>
       </c>
       <c r="S20">
-        <v>0.02165461659382506</v>
+        <v>0.09371301309364938</v>
       </c>
       <c r="T20">
-        <v>0.02165461659382506</v>
+        <v>0.09371301309364935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H21">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I21">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J21">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.384581</v>
+        <v>17.74134133333333</v>
       </c>
       <c r="N21">
-        <v>70.15374300000001</v>
+        <v>53.224024</v>
       </c>
       <c r="O21">
-        <v>0.3656403958512459</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="P21">
-        <v>0.3656403958512459</v>
+        <v>0.2772584500535542</v>
       </c>
       <c r="Q21">
-        <v>260.264844384303</v>
+        <v>683.9838898853272</v>
       </c>
       <c r="R21">
-        <v>2342.383599458727</v>
+        <v>6155.855008967945</v>
       </c>
       <c r="S21">
-        <v>0.04007812649484431</v>
+        <v>0.09120435635637474</v>
       </c>
       <c r="T21">
-        <v>0.04007812649484431</v>
+        <v>0.09120435635637472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H22">
+        <v>28.284435</v>
+      </c>
+      <c r="I22">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J22">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3335856666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.000757</v>
+      </c>
+      <c r="O22">
+        <v>0.005213216022528561</v>
+      </c>
+      <c r="P22">
+        <v>0.00521321602252856</v>
+      </c>
+      <c r="Q22">
+        <v>3.145094035255</v>
+      </c>
+      <c r="R22">
+        <v>28.305846317295</v>
+      </c>
+      <c r="S22">
+        <v>0.0004193757797625857</v>
+      </c>
+      <c r="T22">
+        <v>0.0004193757797625855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H23">
+        <v>28.284435</v>
+      </c>
+      <c r="I23">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J23">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.08711966666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.261359</v>
+      </c>
+      <c r="O23">
+        <v>0.001361490278291376</v>
+      </c>
+      <c r="P23">
+        <v>0.001361490278291376</v>
+      </c>
+      <c r="Q23">
+        <v>0.821376849685</v>
+      </c>
+      <c r="R23">
+        <v>7.392391647165001</v>
+      </c>
+      <c r="S23">
+        <v>0.0001095247242067451</v>
+      </c>
+      <c r="T23">
+        <v>0.0001095247242067451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H24">
+        <v>28.284435</v>
+      </c>
+      <c r="I24">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J24">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>27.597081</v>
+      </c>
+      <c r="N24">
+        <v>82.79124300000001</v>
+      </c>
+      <c r="O24">
+        <v>0.4312821539421215</v>
+      </c>
+      <c r="P24">
+        <v>0.4312821539421214</v>
+      </c>
+      <c r="Q24">
+        <v>260.189281244745</v>
+      </c>
+      <c r="R24">
+        <v>2341.703531202706</v>
+      </c>
+      <c r="S24">
+        <v>0.03469437844615498</v>
+      </c>
+      <c r="T24">
+        <v>0.03469437844615497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H25">
+        <v>28.284435</v>
+      </c>
+      <c r="I25">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J25">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>18.22933266666667</v>
+      </c>
+      <c r="N25">
+        <v>54.687998</v>
+      </c>
+      <c r="O25">
+        <v>0.2848846897035044</v>
+      </c>
+      <c r="P25">
+        <v>0.2848846897035043</v>
+      </c>
+      <c r="Q25">
+        <v>171.86879163457</v>
+      </c>
+      <c r="R25">
+        <v>1546.81912471113</v>
+      </c>
+      <c r="S25">
+        <v>0.02291747327763356</v>
+      </c>
+      <c r="T25">
+        <v>0.02291747327763355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H26">
+        <v>28.284435</v>
+      </c>
+      <c r="I26">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J26">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.74134133333333</v>
+      </c>
+      <c r="N26">
+        <v>53.224024</v>
+      </c>
+      <c r="O26">
+        <v>0.2772584500535542</v>
+      </c>
+      <c r="P26">
+        <v>0.2772584500535542</v>
+      </c>
+      <c r="Q26">
+        <v>167.26793858516</v>
+      </c>
+      <c r="R26">
+        <v>1505.41144726644</v>
+      </c>
+      <c r="S26">
+        <v>0.02230398245238612</v>
+      </c>
+      <c r="T26">
+        <v>0.02230398245238612</v>
       </c>
     </row>
   </sheetData>
